--- a/biology/Botanique/Amédée_Masclef/Amédée_Masclef.xlsx
+++ b/biology/Botanique/Amédée_Masclef/Amédée_Masclef.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Masclef</t>
+          <t>Amédée_Masclef</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Amédée Masclef était un abbé et botaniste français, né le 9 août 1858 à Béthune[1] et mort le 9 juillet 1916 à Paris 12e[2],[3]. Il est principalement connu pour son ouvrage Atlas des plantes de France utiles, nuisibles et ornementales publié en 1891 à Paris, en trois volumes de 400 planches, et réédité en 1893. Cette publication est sous-titrée « Complément de la Nouvelle flore de MM Gaston Bonnier et Georges de Layens »[4].
-Il fut professeur de sciences naturelles au Petit séminaire d'Arras et membre de la Société botanique de France à partir de 1885[5]. À sa sortie du Petit séminaire, il occupe le poste de conservateur de l'herbier de Gaston Bonnier et, en 1905, est enregistré comme habitant de Champlan[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Amédée Masclef était un abbé et botaniste français, né le 9 août 1858 à Béthune et mort le 9 juillet 1916 à Paris 12e,. Il est principalement connu pour son ouvrage Atlas des plantes de France utiles, nuisibles et ornementales publié en 1891 à Paris, en trois volumes de 400 planches, et réédité en 1893. Cette publication est sous-titrée « Complément de la Nouvelle flore de MM Gaston Bonnier et Georges de Layens ».
+Il fut professeur de sciences naturelles au Petit séminaire d'Arras et membre de la Société botanique de France à partir de 1885. À sa sortie du Petit séminaire, il occupe le poste de conservateur de l'herbier de Gaston Bonnier et, en 1905, est enregistré comme habitant de Champlan.
 Il a également publié :
 le Catalogue Raisonné des Plantes Vasculaires du Département du Pas-de-Calais (1886),
-Les Plantes d'Europe (C. Reinwald, Schleicher frères, 1905, Paris)[7] 5 éditions publiées entre 1890 et 1953[8].
-Contributions à la flore du département du Pas-de-Calais. Notice sur l'herbier du musée de la ville d'Arras (1885)[9].</t>
+Les Plantes d'Europe (C. Reinwald, Schleicher frères, 1905, Paris) 5 éditions publiées entre 1890 et 1953.
+Contributions à la flore du département du Pas-de-Calais. Notice sur l'herbier du musée de la ville d'Arras (1885).</t>
         </is>
       </c>
     </row>
